--- a/docs/Cronograma.xlsx
+++ b/docs/Cronograma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\e\EPONA\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\EPONA\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E930AD12-7D78-42FB-B75B-CC4E66835475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086ADF0B-9E64-47F1-A96D-C58833E09D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D31E2C-B99F-4184-B64E-29E481F6E2D0}"/>
   </bookViews>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,7 +347,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,12 +355,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -372,24 +365,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -404,12 +385,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -417,6 +392,32 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,54 +759,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F1AED4-BF48-4182-A5AD-003AD9D051F0}">
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH33" sqref="AH33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57" customWidth="1"/>
-    <col min="2" max="2" width="57" style="13" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="29" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="49" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="F7" s="22" t="s">
+      <c r="D7" s="35"/>
+      <c r="F7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="I7" s="28" t="s">
+      <c r="G7" s="37"/>
+      <c r="I7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="L7" s="36" t="s">
+      <c r="J7" s="39"/>
+      <c r="L7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="37"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -960,7 +963,7 @@
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="9"/>
@@ -979,7 +982,7 @@
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="25" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="9"/>
@@ -990,18 +993,18 @@
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
       <c r="AW14" s="4"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="25" t="s">
         <v>26</v>
       </c>
       <c r="R15" s="9"/>
@@ -1014,7 +1017,7 @@
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="25" t="s">
         <v>20</v>
       </c>
       <c r="T16" s="9"/>
@@ -1029,97 +1032,97 @@
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
       <c r="AW17" s="4"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
       <c r="AW18" s="4"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
       <c r="AW19" s="4"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AG20" s="40"/>
+      <c r="AG20" s="31"/>
       <c r="AW20" s="4"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="12"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="11"/>
       <c r="AW21" s="4"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AU22" s="41"/>
-      <c r="AV22" s="41"/>
-      <c r="AW22" s="41"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="42"/>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="5"/>
@@ -1168,7 +1171,7 @@
       <c r="AT23" s="5"/>
       <c r="AU23" s="5"/>
       <c r="AV23" s="5"/>
-      <c r="AW23" s="11"/>
+      <c r="AW23" s="43"/>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AE31" s="10"/>
